--- a/MP/BD_TD.xlsx
+++ b/MP/BD_TD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodro\Documents\R\Econometria-Financiera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodro\Documents\R\Econometria-Financiera\MP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C4D1E9A-8393-4B7B-B668-94FF856EE16B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A15799-34C7-4114-8A1B-7B197A50B7F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{018688B2-B29F-4B5F-B037-76E3150A0371}"/>
   </bookViews>
@@ -391,9 +391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3F9D58-4071-46E2-85A0-99551DBC1A84}">
-  <dimension ref="A1:B234"/>
+  <dimension ref="A1:B241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="D232" sqref="D232"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2269,6 +2271,62 @@
         <v>21.378491791541524</v>
       </c>
     </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B235">
+        <v>19.813176837393272</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B236">
+        <v>20.223528686857243</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B237">
+        <v>16.757257612080014</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B238">
+        <v>15.77105386749135</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B239">
+        <v>14.650730934233088</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B240">
+        <v>13.311191786718116</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B241">
+        <v>13.371717608720582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MP/BD_TD.xlsx
+++ b/MP/BD_TD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodro\Documents\R\Econometria-Financiera\MP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A15799-34C7-4114-8A1B-7B197A50B7F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69282A3F-1091-439A-856C-3DF7C951194F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{018688B2-B29F-4B5F-B037-76E3150A0371}"/>
   </bookViews>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3F9D58-4071-46E2-85A0-99551DBC1A84}">
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="D232" sqref="D232"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2327,6 +2327,22 @@
         <v>13.371717608720582</v>
       </c>
     </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B242">
+        <v>17.266775075556755</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B243">
+        <v>15.885255096266505</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MP/BD_TD.xlsx
+++ b/MP/BD_TD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodro\Documents\R\Econometria-Financiera\MP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69282A3F-1091-439A-856C-3DF7C951194F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C45862-B5A7-4B77-AA03-271A07CD181E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{018688B2-B29F-4B5F-B037-76E3150A0371}"/>
   </bookViews>
@@ -391,9 +391,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3F9D58-4071-46E2-85A0-99551DBC1A84}">
-  <dimension ref="A1:B243"/>
+  <dimension ref="A1:B247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
@@ -2343,6 +2343,38 @@
         <v>15.885255096266505</v>
       </c>
     </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B244">
+        <v>14.180513460395886</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B245">
+        <v>15.052796344622593</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B246">
+        <v>15.632187944807303</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B247">
+        <v>14.40152831264912</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MP/BD_TD.xlsx
+++ b/MP/BD_TD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodro\Documents\R\Econometria-Financiera\MP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C45862-B5A7-4B77-AA03-271A07CD181E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D848309E-FD4E-47CF-AF89-6DA0F4DF2814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{018688B2-B29F-4B5F-B037-76E3150A0371}"/>
   </bookViews>
@@ -391,11 +391,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3F9D58-4071-46E2-85A0-99551DBC1A84}">
-  <dimension ref="A1:B247"/>
+  <dimension ref="A1:B250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C243" sqref="C243"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2375,6 +2373,30 @@
         <v>14.40152831264912</v>
       </c>
     </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B248">
+        <v>14.288878203595731</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B249">
+        <v>12.331830735917091</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B250">
+        <v>12.10621821399689</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
